--- a/ValueSet-snomed-health-behavior-code.xlsx
+++ b/ValueSet-snomed-health-behavior-code.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://etatunghpa.com/ValueSet/snomed-health-behavior-code</t>
+    <t>https://twhpa.tsti.com/ValueSet/snomed-health-behavior-code</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
